--- a/biology/Botanique/Equisetales/Equisetales.xlsx
+++ b/biology/Botanique/Equisetales/Equisetales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Équisetales (Equisetales) sont un ordre de plantes vasculaires ptéridophytes de la classe des Polypodiopsides (ou les Monilophytes). C'est l'unique ordre survivant des prêles, la sous-classes des Équisétidés, deux autres ordres éteints de prêles étant connus.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les principales caractéristiques sont les suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les principales caractéristiques sont les suivantes :
 ce sont des plantes à rhizomes présentant une tige creuse avec un canal central et en périphérie une série de canaux plus petit formant un cercle ;
 ces espèces ont un épis stérile portant les feuilles et un épis fertile portant les strobiles portant eux-mêmes les sporanges ;
 les feuilles sont réduites à des écailles qui sont insérées en verticille formant une sorte de gaine autour de la tige stérile, ce sont les verticilles de rameaux ;
@@ -550,17 +564,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et genre actuel
-Classification du seul genre actuel selon l'ITIS[2] et le Pteridophytes Phylogeny Group (2016)[3] :
+          <t>Famille et genre actuel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Classification du seul genre actuel selon l'ITIS et le Pteridophytes Phylogeny Group (2016) :
 famille Equisetaceae Michx. ex DC., 1804 :
-Equisetum L., 1753.
-Taxons fossiles
-Classification traditionnelle présentant des familles paraphylétiques, selon Taylor, T.N. &amp; Taylor, E.L. (1993)[4]. :
+Equisetum L., 1753.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Equisetales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classification traditionnelle présentant des familles paraphylétiques, selon Taylor, T.N. &amp; Taylor, E.L. (1993). :
 ordre Equisetales :
 † Calamitaceae Unger *
 † Tchernoviaceae S.V. Meyen *
 † Gondwanostachyaceae S.V. Meyen *
-Liste complète des genres fossiles selon Novikov &amp; Barabasz-Krasny (2015)[5] :
+Liste complète des genres fossiles selon Novikov &amp; Barabasz-Krasny (2015) :
 ordre Equisetales DC. ex Bercht.
 † famille Autophyllitaceae Nakai
 † Autophyllites Grand’Eury
@@ -598,37 +651,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Equisetales</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Equisetales</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Phylogénie au sein des Ptéridophytes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[6] :
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -650,10 +672,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Phylogénie au sein des Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Equisetales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Equisetales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fossile d'Annularia sp. (de la famille des Calamitaceae).
